--- a/z0bug_odoo/build/lib/z0bug_odoo/data/res_country_state.xlsx
+++ b/z0bug_odoo/build/lib/z0bug_odoo/data/res_country_state.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">country_id/id</t>
+    <t xml:space="preserve">country_id</t>
   </si>
   <si>
     <t xml:space="preserve">base.state_it_ag</t>
@@ -1039,6 +1039,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1123,12 +1124,12 @@
   <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.46"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.85"/>
